--- a/public/data/djagad2.xlsx
+++ b/public/data/djagad2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>alamat</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>11222AX</t>
+  </si>
+  <si>
+    <t>Jisoo</t>
+  </si>
+  <si>
+    <t>jisoo@gmail.com</t>
+  </si>
+  <si>
+    <t>087665455432</t>
+  </si>
+  <si>
+    <t>085667890987</t>
+  </si>
+  <si>
+    <t>70-C</t>
+  </si>
+  <si>
+    <t>DJAGAD LAND SINGHASARI</t>
+  </si>
+  <si>
+    <t>11333AX</t>
   </si>
 </sst>
 </file>
@@ -122,9 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M2"/>
+  <dimension ref="B1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,8 +489,8 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>85667890987</v>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -496,11 +518,50 @@
       </c>
       <c r="M2">
         <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>450000000</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>150000000</v>
+      </c>
+      <c r="M3">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
